--- a/Projetos/AutomatizandoPython/EdiçãoDeCSV/dashboard_fluxo_caixa.xlsx
+++ b/Projetos/AutomatizandoPython/EdiçãoDeCSV/dashboard_fluxo_caixa.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\OneDrive\Documents\GitHub\AprendendoPython\Projetos\AutomatizandoPython\EdiçãoDeCSV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C480F08-2986-4A9C-8EAB-235A799A27E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -34,11 +40,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="\R\$\ #,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +97,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -106,6 +112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -113,20 +127,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304809</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>5</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438159</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="image1"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="image1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -139,7 +159,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="762000"/>
+          <a:off x="2571750" y="371475"/>
           <a:ext cx="4572009" cy="2286005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -151,20 +171,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304805</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114304</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438155</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="image2"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="image2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -177,7 +203,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3619500"/>
+          <a:off x="2571750" y="2667000"/>
           <a:ext cx="2743205" cy="1828804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -189,20 +215,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114304</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514354</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="image3"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="image3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -215,7 +247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="3619500"/>
+          <a:off x="5391150" y="2638425"/>
           <a:ext cx="1828804" cy="1828804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -229,9 +261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +301,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -303,6 +335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -337,9 +370,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,470 +546,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>20000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5000</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>23000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>5800</v>
       </c>
-      <c r="D6" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>32200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
         <v>32200</v>
       </c>
     </row>
